--- a/Data_frame/balancos_definitivos/LOGG3.xlsx
+++ b/Data_frame/balancos_definitivos/LOGG3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT80"/>
+  <dimension ref="A1:AV80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -806,6 +816,12 @@
       <c r="AT2" t="n">
         <v>6254445.056</v>
       </c>
+      <c r="AU2" t="n">
+        <v>6329968.128</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>6525853.184</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -948,6 +964,12 @@
       <c r="AT3" t="n">
         <v>933017.024</v>
       </c>
+      <c r="AU3" t="n">
+        <v>757264</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1101139.968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1090,6 +1112,12 @@
       <c r="AT4" t="n">
         <v>396515.008</v>
       </c>
+      <c r="AU4" t="n">
+        <v>194024.992</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>220180.992</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1232,6 +1260,12 @@
       <c r="AT5" t="n">
         <v>0</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1374,6 +1408,12 @@
       <c r="AT6" t="n">
         <v>349756</v>
       </c>
+      <c r="AU6" t="n">
+        <v>320766.016</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>399025.984</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1516,6 +1556,12 @@
       <c r="AT7" t="n">
         <v>0</v>
       </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1658,6 +1704,12 @@
       <c r="AT8" t="n">
         <v>0</v>
       </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1800,6 +1852,12 @@
       <c r="AT9" t="n">
         <v>36398</v>
       </c>
+      <c r="AU9" t="n">
+        <v>37758</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>42142</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1942,6 +2000,12 @@
       <c r="AT10" t="n">
         <v>3756</v>
       </c>
+      <c r="AU10" t="n">
+        <v>4067</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3939</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2084,6 +2148,12 @@
       <c r="AT11" t="n">
         <v>146592</v>
       </c>
+      <c r="AU11" t="n">
+        <v>200648</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>435852</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2226,6 +2296,12 @@
       <c r="AT12" t="n">
         <v>833601.9840000001</v>
       </c>
+      <c r="AU12" t="n">
+        <v>841201.024</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>769846.976</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2368,6 +2444,12 @@
       <c r="AT13" t="n">
         <v>0</v>
       </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2510,6 +2592,12 @@
       <c r="AT14" t="n">
         <v>0</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2652,6 +2740,12 @@
       <c r="AT15" t="n">
         <v>0</v>
       </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2794,6 +2888,12 @@
       <c r="AT16" t="n">
         <v>362852</v>
       </c>
+      <c r="AU16" t="n">
+        <v>359259.008</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>294560</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2936,6 +3036,12 @@
       <c r="AT17" t="n">
         <v>0</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3078,6 +3184,12 @@
       <c r="AT18" t="n">
         <v>0</v>
       </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3220,6 +3332,12 @@
       <c r="AT19" t="n">
         <v>114024</v>
       </c>
+      <c r="AU19" t="n">
+        <v>113558</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>113558</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3362,6 +3480,12 @@
       <c r="AT20" t="n">
         <v>8934</v>
       </c>
+      <c r="AU20" t="n">
+        <v>12521</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>11744</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3504,6 +3628,12 @@
       <c r="AT21" t="n">
         <v>0</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3646,6 +3776,12 @@
       <c r="AT22" t="n">
         <v>4462336</v>
       </c>
+      <c r="AU22" t="n">
+        <v>4705334.784</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>4628150.784</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3788,6 +3924,12 @@
       <c r="AT23" t="n">
         <v>16554</v>
       </c>
+      <c r="AU23" t="n">
+        <v>16237</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>16066</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3930,6 +4072,12 @@
       <c r="AT24" t="n">
         <v>8936</v>
       </c>
+      <c r="AU24" t="n">
+        <v>9931</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>10649</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4072,6 +4220,12 @@
       <c r="AT25" t="n">
         <v>0</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4214,6 +4368,12 @@
       <c r="AT26" t="n">
         <v>6254445.056</v>
       </c>
+      <c r="AU26" t="n">
+        <v>6329968.128</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>6525853.184</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4356,6 +4516,12 @@
       <c r="AT27" t="n">
         <v>528276</v>
       </c>
+      <c r="AU27" t="n">
+        <v>452468</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>577027.968</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4498,6 +4664,12 @@
       <c r="AT28" t="n">
         <v>15427</v>
       </c>
+      <c r="AU28" t="n">
+        <v>12920</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>15713</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4640,6 +4812,12 @@
       <c r="AT29" t="n">
         <v>58418</v>
       </c>
+      <c r="AU29" t="n">
+        <v>47595</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>58231</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4782,6 +4960,12 @@
       <c r="AT30" t="n">
         <v>26162</v>
       </c>
+      <c r="AU30" t="n">
+        <v>28942</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41658</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4924,6 +5108,12 @@
       <c r="AT31" t="n">
         <v>240843.008</v>
       </c>
+      <c r="AU31" t="n">
+        <v>196826</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>277792.992</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5066,6 +5256,12 @@
       <c r="AT32" t="n">
         <v>0</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5208,6 +5404,12 @@
       <c r="AT33" t="n">
         <v>0</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5350,6 +5552,12 @@
       <c r="AT34" t="n">
         <v>187426</v>
       </c>
+      <c r="AU34" t="n">
+        <v>166184.992</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>183632.992</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5492,6 +5700,12 @@
       <c r="AT35" t="n">
         <v>0</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5634,6 +5848,12 @@
       <c r="AT36" t="n">
         <v>0</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5776,6 +5996,12 @@
       <c r="AT37" t="n">
         <v>1993948.032</v>
       </c>
+      <c r="AU37" t="n">
+        <v>2112070.016</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>2162141.952</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5918,6 +6144,12 @@
       <c r="AT38" t="n">
         <v>1656893.952</v>
       </c>
+      <c r="AU38" t="n">
+        <v>1766407.04</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1775544.064</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6060,6 +6292,12 @@
       <c r="AT39" t="n">
         <v>0</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6202,6 +6440,12 @@
       <c r="AT40" t="n">
         <v>192536</v>
       </c>
+      <c r="AU40" t="n">
+        <v>196140</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>248800.992</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6344,6 +6588,12 @@
       <c r="AT41" t="n">
         <v>144518</v>
       </c>
+      <c r="AU41" t="n">
+        <v>149523.008</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>137796.992</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6486,6 +6736,12 @@
       <c r="AT42" t="n">
         <v>0</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6628,6 +6884,12 @@
       <c r="AT43" t="n">
         <v>0</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6770,6 +7032,12 @@
       <c r="AT44" t="n">
         <v>0</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6912,6 +7180,12 @@
       <c r="AT45" t="n">
         <v>0</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7054,6 +7328,12 @@
       <c r="AT46" t="n">
         <v>2276</v>
       </c>
+      <c r="AU46" t="n">
+        <v>11097</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>10701</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7196,6 +7476,12 @@
       <c r="AT47" t="n">
         <v>3729944.928</v>
       </c>
+      <c r="AU47" t="n">
+        <v>3754333.016</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>3775981.88</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7338,6 +7624,12 @@
       <c r="AT48" t="n">
         <v>2735382.016</v>
       </c>
+      <c r="AU48" t="n">
+        <v>2735382.016</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>2735382.016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7480,6 +7772,12 @@
       <c r="AT49" t="n">
         <v>13290</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-26991</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>14820</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7622,6 +7920,12 @@
       <c r="AT50" t="n">
         <v>0</v>
       </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7764,6 +8068,12 @@
       <c r="AT51" t="n">
         <v>981273.024</v>
       </c>
+      <c r="AU51" t="n">
+        <v>990787.008</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>878750.0159999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7906,6 +8216,12 @@
       <c r="AT52" t="n">
         <v>0</v>
       </c>
+      <c r="AU52" t="n">
+        <v>55155</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>147030</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8048,6 +8364,12 @@
       <c r="AT53" t="n">
         <v>0</v>
       </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8190,6 +8512,12 @@
       <c r="AT54" t="n">
         <v>0</v>
       </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8332,6 +8660,12 @@
       <c r="AT55" t="n">
         <v>0</v>
       </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8472,6 +8806,12 @@
         <v>0</v>
       </c>
       <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8526,6 +8866,8 @@
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8578,6 +8920,8 @@
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8718,6 +9062,12 @@
       <c r="AT59" t="n">
         <v>47608</v>
       </c>
+      <c r="AU59" t="n">
+        <v>53841</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>53401</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8858,6 +9208,12 @@
       <c r="AT60" t="n">
         <v>-1197</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-1453</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-1296</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8998,6 +9354,12 @@
       <c r="AT61" t="n">
         <v>46410.992</v>
       </c>
+      <c r="AU61" t="n">
+        <v>52388</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>52105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9138,6 +9500,12 @@
       <c r="AT62" t="n">
         <v>-2526</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-2548</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-2566</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9278,6 +9646,12 @@
       <c r="AT63" t="n">
         <v>-12989</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-12079</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-11072</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9418,6 +9792,12 @@
       <c r="AT64" t="n">
         <v>0</v>
       </c>
+      <c r="AU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9558,6 +9938,12 @@
       <c r="AT65" t="n">
         <v>31175</v>
       </c>
+      <c r="AU65" t="n">
+        <v>35797</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>350468.992</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9698,6 +10084,12 @@
       <c r="AT66" t="n">
         <v>-414.008</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-2520</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-249682</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9838,6 +10230,12 @@
       <c r="AT67" t="n">
         <v>638</v>
       </c>
+      <c r="AU67" t="n">
+        <v>1823</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9978,6 +10376,12 @@
       <c r="AT68" t="n">
         <v>-10262</v>
       </c>
+      <c r="AU68" t="n">
+        <v>-9123</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>-32455</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10118,6 +10522,12 @@
       <c r="AT69" t="n">
         <v>28062</v>
       </c>
+      <c r="AU69" t="n">
+        <v>30499</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>29016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10257,6 +10667,12 @@
       </c>
       <c r="AT70" t="n">
         <v>-38323.992</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>-39622</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>-61471</v>
       </c>
     </row>
     <row r="71">
@@ -10310,6 +10726,8 @@
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10362,6 +10780,8 @@
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
       <c r="AT72" t="inlineStr"/>
+      <c r="AU72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10414,6 +10834,8 @@
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10554,6 +10976,12 @@
       <c r="AT74" t="n">
         <v>52032.992</v>
       </c>
+      <c r="AU74" t="n">
+        <v>63738</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>107070</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10694,6 +11122,12 @@
       <c r="AT75" t="n">
         <v>-4584</v>
       </c>
+      <c r="AU75" t="n">
+        <v>-4810</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>-17304</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10833,6 +11267,12 @@
       </c>
       <c r="AT76" t="n">
         <v>25830</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>-3628</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>2120</v>
       </c>
     </row>
     <row r="77">
@@ -10886,6 +11326,8 @@
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
       <c r="AT77" t="inlineStr"/>
+      <c r="AU77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10938,6 +11380,8 @@
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
       <c r="AT78" t="inlineStr"/>
+      <c r="AU78" t="inlineStr"/>
+      <c r="AV78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11078,6 +11522,12 @@
       <c r="AT79" t="n">
         <v>128</v>
       </c>
+      <c r="AU79" t="n">
+        <v>-145</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11217,6 +11667,12 @@
       </c>
       <c r="AT80" t="n">
         <v>73407</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>55155</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>91873</v>
       </c>
     </row>
   </sheetData>
